--- a/MATE/testfile.xlsx
+++ b/MATE/testfile.xlsx
@@ -12,9 +12,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+  <si>
+    <t xml:space="preserve">Simulation protocol number: </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Fri May 11 15:48:31 CEST 2018</t>
+  </si>
+  <si>
+    <t>Tree Settings</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>MinNodes</t>
+  </si>
+  <si>
+    <t>MaxNodes</t>
+  </si>
+  <si>
+    <t>MinBranches</t>
+  </si>
+  <si>
+    <t>MaxBranches</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>NumberOfAgents</t>
+  </si>
+  <si>
+    <t>-1546065383</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>[I@3961334f</t>
+  </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Treecode</t>
+  </si>
+  <si>
+    <t>Number of Nodes</t>
+  </si>
+  <si>
+    <t>Number of Agents</t>
+  </si>
+  <si>
+    <t>CTE Steps</t>
+  </si>
+  <si>
+    <t>Leftie Steps</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>#-2940809562860014973;30;5;4;0;0.7;100000;10000</t>
+  </si>
+  <si>
+    <t>1.6603603603603603</t>
+  </si>
+  <si>
+    <t>1.0404504504504504</t>
+  </si>
+  <si>
+    <t>4.6893939393939394</t>
+  </si>
+  <si>
+    <t>3.608108108108108</t>
+  </si>
+  <si>
+    <t>#8525532152298346829;30;5;4;0;0.7;100000;10000</t>
+  </si>
+  <si>
+    <t>1.4584245076586433</t>
+  </si>
+  <si>
+    <t>1.018902972027972</t>
+  </si>
+  <si>
+    <t>3.1373626373626373</t>
+  </si>
+  <si>
+    <t>#-7887541041863843187;30;5;4;0;0.7;100000;10000</t>
+  </si>
+  <si>
+    <t>1.0441315664931377</t>
+  </si>
+  <si>
+    <t>4.303571428571429</t>
+  </si>
+  <si>
+    <t>4.614583333333333</t>
+  </si>
+  <si>
+    <t>1.8258293838862558</t>
+  </si>
+  <si>
+    <t>4.423076923076923</t>
+  </si>
+  <si>
+    <t>3.0681818181818183</t>
+  </si>
+  <si>
+    <t>2.9895833333333335</t>
+  </si>
+  <si>
+    <t>#8815915135555902750;30;5;4;0;0.7;100000;10000</t>
+  </si>
+  <si>
+    <t>1.5005411255411256</t>
+  </si>
+  <si>
+    <t>2.926630434782609</t>
+  </si>
+  <si>
+    <t>1.0304455980964742</t>
+  </si>
+  <si>
+    <t>4.331521739130435</t>
+  </si>
+  <si>
+    <t>2.9615384615384617</t>
+  </si>
+  <si>
+    <t>#-7721023410763293009;30;5;4;0;0.7;100000;10000</t>
+  </si>
+  <si>
+    <t>2.747093023255814</t>
+  </si>
+  <si>
+    <t>1.41869918699187</t>
+  </si>
+  <si>
+    <t>4.005813953488372</t>
+  </si>
+  <si>
+    <t>2.5729166666666665</t>
+  </si>
+  <si>
+    <t>1.0180457235696878</t>
+  </si>
+  <si>
+    <t>2.643939393939394</t>
+  </si>
+  <si>
+    <t>3.717741935483871</t>
+  </si>
+  <si>
+    <t>3.536363636363636</t>
+  </si>
+  <si>
+    <t>2.5923076923076924</t>
+  </si>
+  <si>
+    <t>2.9545454545454546</t>
+  </si>
+  <si>
+    <t>3.056451612903226</t>
   </si>
 </sst>
 </file>
@@ -59,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,6 +246,664 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55501.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55501.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11549.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11100.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55501.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1333.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>914.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9325.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9152.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42263.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8825.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8452.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="n">
+        <v>42263.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>723.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42263.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1541.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42263.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>55501.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>92465.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2773.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>92465.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>92465.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19055.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18492.0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>92465.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>797.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>42263.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="n">
+        <v>86179.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="n">
+        <v>86179.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2443.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1722.0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="n">
+        <v>86179.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>86179.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17545.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17234.0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>55501.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="n">
+        <v>92465.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>86179.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>42263.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86179.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>92465.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
